--- a/data/pca/factorExposure/factorExposure_2017-03-31.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-03-31.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01472854994281083</v>
+        <v>0.01063822835290869</v>
       </c>
       <c r="C2">
-        <v>-0.01852901324657313</v>
+        <v>-0.04085741942331853</v>
       </c>
       <c r="D2">
-        <v>0.03167229575719251</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.02948076600406635</v>
+      </c>
+      <c r="E2">
+        <v>0.03721242786587241</v>
+      </c>
+      <c r="F2">
+        <v>-0.002321986271562195</v>
+      </c>
+      <c r="G2">
+        <v>0.1029694483522472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.02151632573914096</v>
+        <v>0.04126922136016219</v>
       </c>
       <c r="C3">
-        <v>0.003542251759249973</v>
+        <v>-0.1018134292464181</v>
       </c>
       <c r="D3">
-        <v>0.09751310704620382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01783246064401001</v>
+      </c>
+      <c r="E3">
+        <v>0.1027614003156897</v>
+      </c>
+      <c r="F3">
+        <v>0.001139376032361023</v>
+      </c>
+      <c r="G3">
+        <v>0.1635837531560894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02831402615357981</v>
+        <v>0.05590266125413303</v>
       </c>
       <c r="C4">
-        <v>-0.007069212801773181</v>
+        <v>-0.06887412599153218</v>
       </c>
       <c r="D4">
-        <v>0.08322639979523955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02465992756274775</v>
+      </c>
+      <c r="E4">
+        <v>0.03381147910410306</v>
+      </c>
+      <c r="F4">
+        <v>-0.009264947695116352</v>
+      </c>
+      <c r="G4">
+        <v>0.09929405016521181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01281463413460839</v>
+        <v>0.03607402017950299</v>
       </c>
       <c r="C6">
-        <v>-0.009409921712446052</v>
+        <v>-0.05051652363039619</v>
       </c>
       <c r="D6">
-        <v>0.07442406937962577</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01729202843348083</v>
+      </c>
+      <c r="E6">
+        <v>0.03963375894427616</v>
+      </c>
+      <c r="F6">
+        <v>-0.006044928511023223</v>
+      </c>
+      <c r="G6">
+        <v>0.08670978484049147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.00460692364109898</v>
+        <v>0.02052882379976792</v>
       </c>
       <c r="C7">
-        <v>-0.01077181679023308</v>
+        <v>-0.03941681204820999</v>
       </c>
       <c r="D7">
-        <v>0.0359724899467436</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01408795544568321</v>
+      </c>
+      <c r="E7">
+        <v>0.008508598637840621</v>
+      </c>
+      <c r="F7">
+        <v>0.004561211462330614</v>
+      </c>
+      <c r="G7">
+        <v>0.122368847045435</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.003054762336596792</v>
+        <v>0.00268831776547987</v>
       </c>
       <c r="C8">
-        <v>-0.003175965585682801</v>
+        <v>-0.02420680891731785</v>
       </c>
       <c r="D8">
-        <v>-0.004238808199831349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.003879329595086695</v>
+      </c>
+      <c r="E8">
+        <v>0.03095823002585225</v>
+      </c>
+      <c r="F8">
+        <v>-0.003931063688497691</v>
+      </c>
+      <c r="G8">
+        <v>0.0703315538833731</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01374329283441258</v>
+        <v>0.03407168510502436</v>
       </c>
       <c r="C9">
-        <v>-0.007538974217654112</v>
+        <v>-0.05038419565677191</v>
       </c>
       <c r="D9">
-        <v>0.05899559072982788</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01648721599752286</v>
+      </c>
+      <c r="E9">
+        <v>0.02343188040628476</v>
+      </c>
+      <c r="F9">
+        <v>-0.006350006596667306</v>
+      </c>
+      <c r="G9">
+        <v>0.09997729744487822</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1371351957743851</v>
+        <v>0.09873214184566972</v>
       </c>
       <c r="C10">
-        <v>0.1085547112473943</v>
+        <v>0.1839799103397723</v>
       </c>
       <c r="D10">
-        <v>-0.1079290214115854</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01559329701838795</v>
+      </c>
+      <c r="E10">
+        <v>0.02068151186680177</v>
+      </c>
+      <c r="F10">
+        <v>0.02190819091031782</v>
+      </c>
+      <c r="G10">
+        <v>0.05688441532840217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.002504027690167862</v>
+        <v>0.03451463379488295</v>
       </c>
       <c r="C11">
-        <v>0.0005795940377160251</v>
+        <v>-0.05313254051551324</v>
       </c>
       <c r="D11">
-        <v>0.05303063613300092</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002537543409255807</v>
+      </c>
+      <c r="E11">
+        <v>0.01841985332209876</v>
+      </c>
+      <c r="F11">
+        <v>-0.01915704757224115</v>
+      </c>
+      <c r="G11">
+        <v>0.09066672421418738</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005150723677987042</v>
+        <v>0.03610704053991667</v>
       </c>
       <c r="C12">
-        <v>-0.003375019830040357</v>
+        <v>-0.04796695279586919</v>
       </c>
       <c r="D12">
-        <v>0.04647474908514668</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.006621413532005855</v>
+      </c>
+      <c r="E12">
+        <v>0.01004279165745613</v>
+      </c>
+      <c r="F12">
+        <v>-0.0003337762148475863</v>
+      </c>
+      <c r="G12">
+        <v>0.08247560682137392</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.01791815431692149</v>
+        <v>0.01533749196250436</v>
       </c>
       <c r="C13">
-        <v>-0.01309203004769894</v>
+        <v>-0.04169605371402337</v>
       </c>
       <c r="D13">
-        <v>0.03369107963009933</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02663134306897459</v>
+      </c>
+      <c r="E13">
+        <v>0.03906635610785188</v>
+      </c>
+      <c r="F13">
+        <v>-0.003342058159375708</v>
+      </c>
+      <c r="G13">
+        <v>0.1407588685617456</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.004524417226312577</v>
+        <v>0.008011147103202292</v>
       </c>
       <c r="C14">
-        <v>-0.005306470990806685</v>
+        <v>-0.02804434222602094</v>
       </c>
       <c r="D14">
-        <v>0.01908924304916063</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01024542250141028</v>
+      </c>
+      <c r="E14">
+        <v>0.008845917950148241</v>
+      </c>
+      <c r="F14">
+        <v>0.007615277645841059</v>
+      </c>
+      <c r="G14">
+        <v>0.1070532819450116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.005633997944592847</v>
+        <v>0.03305777756865183</v>
       </c>
       <c r="C16">
-        <v>0.003206321178353134</v>
+        <v>-0.0461671437846051</v>
       </c>
       <c r="D16">
-        <v>0.0410241154458055</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002024270026561797</v>
+      </c>
+      <c r="E16">
+        <v>0.01596803585107157</v>
+      </c>
+      <c r="F16">
+        <v>-0.0005119275212476916</v>
+      </c>
+      <c r="G16">
+        <v>0.09236068331889397</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01145379188608982</v>
+        <v>0.02267618319432213</v>
       </c>
       <c r="C19">
-        <v>-0.007641021114327535</v>
+        <v>-0.05139575551369527</v>
       </c>
       <c r="D19">
-        <v>0.03621639955102271</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01943002915708261</v>
+      </c>
+      <c r="E19">
+        <v>0.08281642662348079</v>
+      </c>
+      <c r="F19">
+        <v>-0.01720722128797352</v>
+      </c>
+      <c r="G19">
+        <v>0.139112300089537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.004812142238962158</v>
+        <v>0.01527436518636489</v>
       </c>
       <c r="C20">
-        <v>-0.009597344343161588</v>
+        <v>-0.04168427897096217</v>
       </c>
       <c r="D20">
-        <v>0.03309695087981226</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01435286747522577</v>
+      </c>
+      <c r="E20">
+        <v>0.03966060306999383</v>
+      </c>
+      <c r="F20">
+        <v>0.01368190971255075</v>
+      </c>
+      <c r="G20">
+        <v>0.1118203937216929</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.0134809506858714</v>
+        <v>0.01190990340030026</v>
       </c>
       <c r="C21">
-        <v>-0.006067494871733707</v>
+        <v>-0.03799868520713466</v>
       </c>
       <c r="D21">
-        <v>0.02058954127611567</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01937446458004268</v>
+      </c>
+      <c r="E21">
+        <v>0.05260198669876923</v>
+      </c>
+      <c r="F21">
+        <v>0.00202670243277212</v>
+      </c>
+      <c r="G21">
+        <v>0.1390769432953829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001738886821449315</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-8.004044579349165e-05</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.0007092605011248833</v>
+      </c>
+      <c r="E22">
+        <v>0.005277825908644659</v>
+      </c>
+      <c r="F22">
+        <v>-0.00243264477553906</v>
+      </c>
+      <c r="G22">
+        <v>0.006911862382429498</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001744392381249718</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-9.176388971214903e-05</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.0007080735495158214</v>
+      </c>
+      <c r="E23">
+        <v>0.005264603175310166</v>
+      </c>
+      <c r="F23">
+        <v>-0.002438923319518774</v>
+      </c>
+      <c r="G23">
+        <v>0.006804965350424232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0004041301573686399</v>
+        <v>0.02820596222564816</v>
       </c>
       <c r="C24">
-        <v>-0.006967213061706341</v>
+        <v>-0.05084495868406079</v>
       </c>
       <c r="D24">
-        <v>0.04592445280720708</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007375691438770818</v>
+      </c>
+      <c r="E24">
+        <v>0.01337536182092364</v>
+      </c>
+      <c r="F24">
+        <v>-0.01092401370034014</v>
+      </c>
+      <c r="G24">
+        <v>0.09096648783623543</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01646443838620557</v>
+        <v>0.04229196088044201</v>
       </c>
       <c r="C25">
-        <v>-0.0010294379046153</v>
+        <v>-0.05792238357135032</v>
       </c>
       <c r="D25">
-        <v>0.05842363867711645</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01138505112236532</v>
+      </c>
+      <c r="E25">
+        <v>0.00550344034098664</v>
+      </c>
+      <c r="F25">
+        <v>-0.004423351537700914</v>
+      </c>
+      <c r="G25">
+        <v>0.09942458745801394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.01380632450448208</v>
+        <v>0.01349322622755363</v>
       </c>
       <c r="C26">
-        <v>-0.0170604894976177</v>
+        <v>-0.01275524429500104</v>
       </c>
       <c r="D26">
-        <v>0.001594793952007963</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02432456828249909</v>
+      </c>
+      <c r="E26">
+        <v>0.01020597173000917</v>
+      </c>
+      <c r="F26">
+        <v>0.007433789844771666</v>
+      </c>
+      <c r="G26">
+        <v>0.08313344171122837</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1889305120379152</v>
+        <v>0.1258095873835516</v>
       </c>
       <c r="C28">
-        <v>0.131452896677679</v>
+        <v>0.2408263756725745</v>
       </c>
       <c r="D28">
-        <v>-0.1404066179064868</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.006673793410043955</v>
+      </c>
+      <c r="E28">
+        <v>0.009390702284018502</v>
+      </c>
+      <c r="F28">
+        <v>0.01592476956094119</v>
+      </c>
+      <c r="G28">
+        <v>0.04898983476676926</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0102644255780151</v>
+        <v>0.008678396176283553</v>
       </c>
       <c r="C29">
-        <v>-0.0006464368378859836</v>
+        <v>-0.02230023282365878</v>
       </c>
       <c r="D29">
-        <v>0.01752322890026918</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009345438376818761</v>
+      </c>
+      <c r="E29">
+        <v>0.006019436789033408</v>
+      </c>
+      <c r="F29">
+        <v>0.01412092280047699</v>
+      </c>
+      <c r="G29">
+        <v>0.0983956610546044</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.01174421782724059</v>
+        <v>0.04158753054418111</v>
       </c>
       <c r="C30">
-        <v>-0.02168728094338153</v>
+        <v>-0.06863342601202671</v>
       </c>
       <c r="D30">
-        <v>0.09648824050088226</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02908722751264023</v>
+      </c>
+      <c r="E30">
+        <v>0.06146250626513063</v>
+      </c>
+      <c r="F30">
+        <v>-0.04282681430036656</v>
+      </c>
+      <c r="G30">
+        <v>0.1347609956570656</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0259896582745638</v>
+        <v>0.05313154570170455</v>
       </c>
       <c r="C31">
-        <v>0.01309912516508565</v>
+        <v>-0.0380412945096274</v>
       </c>
       <c r="D31">
-        <v>0.0290188952493725</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.003801973782227532</v>
+      </c>
+      <c r="E31">
+        <v>-0.0003588702704410931</v>
+      </c>
+      <c r="F31">
+        <v>0.04071768270060114</v>
+      </c>
+      <c r="G31">
+        <v>0.09844171553502849</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.0004326493616589715</v>
+        <v>0.001542217452775971</v>
       </c>
       <c r="C32">
-        <v>0.01002063604944064</v>
+        <v>-0.02285771508276249</v>
       </c>
       <c r="D32">
-        <v>-0.003990785927977334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002624279778200984</v>
+      </c>
+      <c r="E32">
+        <v>0.03831010764831363</v>
+      </c>
+      <c r="F32">
+        <v>-0.04424480080717386</v>
+      </c>
+      <c r="G32">
+        <v>0.09043785271825293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.00747459833179902</v>
+        <v>0.02813330813839412</v>
       </c>
       <c r="C33">
-        <v>-0.00841127308557567</v>
+        <v>-0.05041819950635028</v>
       </c>
       <c r="D33">
-        <v>0.04136925546479407</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01583509721337366</v>
+      </c>
+      <c r="E33">
+        <v>0.0455136592200754</v>
+      </c>
+      <c r="F33">
+        <v>-0.0142822961801372</v>
+      </c>
+      <c r="G33">
+        <v>0.1622831366789474</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.009199314810603314</v>
+        <v>0.03973222117722194</v>
       </c>
       <c r="C34">
-        <v>0.01367432413662358</v>
+        <v>-0.05941390776215737</v>
       </c>
       <c r="D34">
-        <v>0.05504160950906112</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004394923790899523</v>
+      </c>
+      <c r="E34">
+        <v>0.00863989698836308</v>
+      </c>
+      <c r="F34">
+        <v>-0.02008352381417714</v>
+      </c>
+      <c r="G34">
+        <v>0.09399255654285643</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01532254139937121</v>
+        <v>0.01601563294301111</v>
       </c>
       <c r="C36">
-        <v>-0.001695028572080941</v>
+        <v>-0.009470965949610992</v>
       </c>
       <c r="D36">
-        <v>0.005531782169318455</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01263828130966674</v>
+      </c>
+      <c r="E36">
+        <v>0.01001293977888857</v>
+      </c>
+      <c r="F36">
+        <v>0.007660459347529216</v>
+      </c>
+      <c r="G36">
+        <v>0.09273475748202306</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.01519399593606423</v>
+        <v>0.03095376577207405</v>
       </c>
       <c r="C38">
-        <v>0.0202948257893817</v>
+        <v>-0.03023185309871767</v>
       </c>
       <c r="D38">
-        <v>0.03727445169086218</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007298597059247013</v>
+      </c>
+      <c r="E38">
+        <v>0.008581135401954628</v>
+      </c>
+      <c r="F38">
+        <v>0.01787507202363504</v>
+      </c>
+      <c r="G38">
+        <v>0.08776690063965482</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.009147457803053859</v>
+        <v>0.03662779662598051</v>
       </c>
       <c r="C39">
-        <v>-0.01801795146819037</v>
+        <v>-0.07972198291633213</v>
       </c>
       <c r="D39">
-        <v>0.09880277320418114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01187369838906174</v>
+      </c>
+      <c r="E39">
+        <v>0.03013501382478753</v>
+      </c>
+      <c r="F39">
+        <v>-0.02154791981644371</v>
+      </c>
+      <c r="G39">
+        <v>0.09085279407956907</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01463212638287072</v>
+        <v>0.01339572637833895</v>
       </c>
       <c r="C40">
-        <v>-0.002193135730503778</v>
+        <v>-0.0392123462863169</v>
       </c>
       <c r="D40">
-        <v>0.02961007422921835</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01480777181253631</v>
+      </c>
+      <c r="E40">
+        <v>0.03241668223198391</v>
+      </c>
+      <c r="F40">
+        <v>0.008807154875019688</v>
+      </c>
+      <c r="G40">
+        <v>0.124142028225146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.01541177705479884</v>
+        <v>0.02061293473671492</v>
       </c>
       <c r="C41">
-        <v>0.007623384355856877</v>
+        <v>-0.002668859563418183</v>
       </c>
       <c r="D41">
-        <v>-0.009531113017409739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004501889953808895</v>
+      </c>
+      <c r="E41">
+        <v>0.007963333972125997</v>
+      </c>
+      <c r="F41">
+        <v>0.01580243739529294</v>
+      </c>
+      <c r="G41">
+        <v>0.08551551272829343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.04525826587995644</v>
+        <v>0.009884873699699237</v>
       </c>
       <c r="C42">
-        <v>-0.08258691861254183</v>
+        <v>-0.03204192212581058</v>
       </c>
       <c r="D42">
-        <v>0.1348950387986083</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08896069531789322</v>
+      </c>
+      <c r="E42">
+        <v>0.01634007550006032</v>
+      </c>
+      <c r="F42">
+        <v>0.04289774579299071</v>
+      </c>
+      <c r="G42">
+        <v>-0.02125791853019064</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.0162641271409923</v>
+        <v>0.03514231090648744</v>
       </c>
       <c r="C43">
-        <v>0.007265465508093978</v>
+        <v>-0.01835018663292803</v>
       </c>
       <c r="D43">
-        <v>-0.01133091460884277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.005940638769178129</v>
+      </c>
+      <c r="E43">
+        <v>0.0211519366779906</v>
+      </c>
+      <c r="F43">
+        <v>0.008023911037895017</v>
+      </c>
+      <c r="G43">
+        <v>0.1191890429218047</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-3.821961566321304e-05</v>
+        <v>0.01325488326472662</v>
       </c>
       <c r="C44">
-        <v>-0.003520220244553555</v>
+        <v>-0.05936107386159898</v>
       </c>
       <c r="D44">
-        <v>0.04798416403409954</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0071627868984566</v>
+      </c>
+      <c r="E44">
+        <v>0.02690150393042223</v>
+      </c>
+      <c r="F44">
+        <v>0.00416310788195711</v>
+      </c>
+      <c r="G44">
+        <v>0.1117869342644811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009166744896102931</v>
+        <v>0.008391399641867192</v>
       </c>
       <c r="C46">
-        <v>-0.005063457621268658</v>
+        <v>-0.01420466567220248</v>
       </c>
       <c r="D46">
-        <v>-0.003963121070295873</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01261571102249931</v>
+      </c>
+      <c r="E46">
+        <v>0.002167645966970585</v>
+      </c>
+      <c r="F46">
+        <v>0.01554640746925085</v>
+      </c>
+      <c r="G46">
+        <v>0.1067220159637094</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.02292925870773267</v>
+        <v>0.07742629416111607</v>
       </c>
       <c r="C47">
-        <v>0.01886332384225431</v>
+        <v>-0.06888288405939189</v>
       </c>
       <c r="D47">
-        <v>0.07258589599539605</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.004775967880766007</v>
+      </c>
+      <c r="E47">
+        <v>-0.005337426598627557</v>
+      </c>
+      <c r="F47">
+        <v>0.05311635774527342</v>
+      </c>
+      <c r="G47">
+        <v>0.08450444392233769</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.008660779550882739</v>
+        <v>0.01860018583237912</v>
       </c>
       <c r="C48">
-        <v>0.005156689751091105</v>
+        <v>-0.01296611371859116</v>
       </c>
       <c r="D48">
-        <v>0.01482121317900611</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002347102357439201</v>
+      </c>
+      <c r="E48">
+        <v>0.006461900865424099</v>
+      </c>
+      <c r="F48">
+        <v>0.01944796084109061</v>
+      </c>
+      <c r="G48">
+        <v>0.09773062653225666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.03372845353450533</v>
+        <v>0.07531482645818045</v>
       </c>
       <c r="C50">
-        <v>0.02481916443931269</v>
+        <v>-0.07173251006049024</v>
       </c>
       <c r="D50">
-        <v>0.06865879689610303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.002196969090216399</v>
+      </c>
+      <c r="E50">
+        <v>-0.002949349086999844</v>
+      </c>
+      <c r="F50">
+        <v>0.05517106909353868</v>
+      </c>
+      <c r="G50">
+        <v>0.09298816685929723</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.005274615626459587</v>
+        <v>0.01355115173484721</v>
       </c>
       <c r="C51">
-        <v>-0.003221114793859501</v>
+        <v>-0.03628574081839084</v>
       </c>
       <c r="D51">
-        <v>0.01728898829300216</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01084448096467987</v>
+      </c>
+      <c r="E51">
+        <v>0.02900171886385873</v>
+      </c>
+      <c r="F51">
+        <v>-0.02399043702492306</v>
+      </c>
+      <c r="G51">
+        <v>0.1236974608346188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.03812991191689166</v>
+        <v>0.08192250414012887</v>
       </c>
       <c r="C53">
-        <v>0.02769837266882991</v>
+        <v>-0.08512454747906847</v>
       </c>
       <c r="D53">
-        <v>0.1274456817261432</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.00353715276652495</v>
+      </c>
+      <c r="E53">
+        <v>-0.02500602139393229</v>
+      </c>
+      <c r="F53">
+        <v>0.06482790223810289</v>
+      </c>
+      <c r="G53">
+        <v>0.09247884907034949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01597669384682973</v>
+        <v>0.0313192573937814</v>
       </c>
       <c r="C54">
-        <v>0.01561523285402336</v>
+        <v>-0.01899001412184094</v>
       </c>
       <c r="D54">
-        <v>-0.003502766563785867</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.001162015518413476</v>
+      </c>
+      <c r="E54">
+        <v>0.01908598331099466</v>
+      </c>
+      <c r="F54">
+        <v>0.00575050924205758</v>
+      </c>
+      <c r="G54">
+        <v>0.1074134580809467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.01993258064493345</v>
+        <v>0.07172056860508866</v>
       </c>
       <c r="C55">
-        <v>0.01542645027005749</v>
+        <v>-0.06807951097543742</v>
       </c>
       <c r="D55">
-        <v>0.09902046550641054</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005077034989538993</v>
+      </c>
+      <c r="E55">
+        <v>-0.02336678528269265</v>
+      </c>
+      <c r="F55">
+        <v>0.06364873442647831</v>
+      </c>
+      <c r="G55">
+        <v>0.06959083496168317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.04411229802930364</v>
+        <v>0.1359774184148484</v>
       </c>
       <c r="C56">
-        <v>0.03653362549277072</v>
+        <v>-0.1076527963937786</v>
       </c>
       <c r="D56">
-        <v>0.1577279447706193</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01248738511182503</v>
+      </c>
+      <c r="E56">
+        <v>-0.03315303700617071</v>
+      </c>
+      <c r="F56">
+        <v>0.08163648423020683</v>
+      </c>
+      <c r="G56">
+        <v>0.04313189163259307</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.01963697626406533</v>
+        <v>0.00575975990884627</v>
       </c>
       <c r="C57">
-        <v>-0.01347954962124989</v>
+        <v>-0.006531553037012366</v>
       </c>
       <c r="D57">
-        <v>0.03040447370481691</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.0228881928022194</v>
+      </c>
+      <c r="E57">
+        <v>0.02527490119930953</v>
+      </c>
+      <c r="F57">
+        <v>-0.007893688386900017</v>
+      </c>
+      <c r="G57">
+        <v>0.02377077443541587</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01255482456128335</v>
+        <v>0.05286454482637112</v>
       </c>
       <c r="C58">
-        <v>0.00634141207005055</v>
+        <v>-0.0414180088972887</v>
       </c>
       <c r="D58">
-        <v>0.1172521177299058</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02036837861809373</v>
+      </c>
+      <c r="E58">
+        <v>0.9069441580615488</v>
+      </c>
+      <c r="F58">
+        <v>0.2830384834853373</v>
+      </c>
+      <c r="G58">
+        <v>-0.2366587616780693</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.210200742428152</v>
+        <v>0.1599846342767738</v>
       </c>
       <c r="C59">
-        <v>0.1522964473680999</v>
+        <v>0.2055285629597352</v>
       </c>
       <c r="D59">
-        <v>-0.1177964491432322</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01166545193333265</v>
+      </c>
+      <c r="E59">
+        <v>0.01833482686146398</v>
+      </c>
+      <c r="F59">
+        <v>0.002770636433429842</v>
+      </c>
+      <c r="G59">
+        <v>0.04204130856550315</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.1854590254576511</v>
+        <v>0.2881142690487036</v>
       </c>
       <c r="C60">
-        <v>0.1109765822339244</v>
+        <v>-0.1097138594196037</v>
       </c>
       <c r="D60">
-        <v>0.1418954479871766</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01215415184884289</v>
+      </c>
+      <c r="E60">
+        <v>0.005787006150312327</v>
+      </c>
+      <c r="F60">
+        <v>-0.3399731628790285</v>
+      </c>
+      <c r="G60">
+        <v>-0.1596699223189124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.003561762973431159</v>
+        <v>0.03914128270814444</v>
       </c>
       <c r="C61">
-        <v>-0.001606615297998898</v>
+        <v>-0.0655008317494363</v>
       </c>
       <c r="D61">
-        <v>0.07336483024028945</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.005568182545902018</v>
+      </c>
+      <c r="E61">
+        <v>0.02421403656904947</v>
+      </c>
+      <c r="F61">
+        <v>-0.01249807571767156</v>
+      </c>
+      <c r="G61">
+        <v>0.09607997623460762</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.005712398321275615</v>
+        <v>0.01518946545200198</v>
       </c>
       <c r="C63">
-        <v>-0.004879674341907709</v>
+        <v>-0.03057301948045302</v>
       </c>
       <c r="D63">
-        <v>0.02568023406605345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.00863636982795145</v>
+      </c>
+      <c r="E63">
+        <v>0.005570850601858741</v>
+      </c>
+      <c r="F63">
+        <v>0.01646058360508323</v>
+      </c>
+      <c r="G63">
+        <v>0.09307691222450389</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.02662190231149343</v>
+        <v>0.04923547615305209</v>
       </c>
       <c r="C64">
-        <v>0.0127220883719917</v>
+        <v>-0.04790900849836773</v>
       </c>
       <c r="D64">
-        <v>0.05877295179519958</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006522228214014849</v>
+      </c>
+      <c r="E64">
+        <v>0.008771668530159708</v>
+      </c>
+      <c r="F64">
+        <v>-0.007214995957222534</v>
+      </c>
+      <c r="G64">
+        <v>0.1002051384179753</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.02878033992708141</v>
+        <v>0.07502682287907544</v>
       </c>
       <c r="C65">
-        <v>-0.0007961070746956027</v>
+        <v>-0.0578012441066406</v>
       </c>
       <c r="D65">
-        <v>0.1118978090837254</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01683246241664324</v>
+      </c>
+      <c r="E65">
+        <v>0.04127411579690368</v>
+      </c>
+      <c r="F65">
+        <v>-0.02734726462853378</v>
+      </c>
+      <c r="G65">
+        <v>0.04424134661620095</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.006221163292216635</v>
+        <v>0.05109014639509565</v>
       </c>
       <c r="C66">
-        <v>-0.01554940241592036</v>
+        <v>-0.1066360445584959</v>
       </c>
       <c r="D66">
-        <v>0.1355747230057199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01181790396025246</v>
+      </c>
+      <c r="E66">
+        <v>0.04204655234026295</v>
+      </c>
+      <c r="F66">
+        <v>-0.03257849663935598</v>
+      </c>
+      <c r="G66">
+        <v>0.1044771363496749</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.03571577174543648</v>
+        <v>0.05389525301357054</v>
       </c>
       <c r="C67">
-        <v>0.03098847170976194</v>
+        <v>-0.03377754775379456</v>
       </c>
       <c r="D67">
-        <v>0.05650627379789648</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005836166531368353</v>
+      </c>
+      <c r="E67">
+        <v>-0.00124589416716192</v>
+      </c>
+      <c r="F67">
+        <v>0.01716258177941163</v>
+      </c>
+      <c r="G67">
+        <v>0.07518504256664084</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.2165449864824658</v>
+        <v>0.155420062979998</v>
       </c>
       <c r="C68">
-        <v>0.1336511300522772</v>
+        <v>0.2695205922137561</v>
       </c>
       <c r="D68">
-        <v>-0.1722950038059081</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.005394618936645441</v>
+      </c>
+      <c r="E68">
+        <v>0.01086085113196464</v>
+      </c>
+      <c r="F68">
+        <v>0.03702776320780676</v>
+      </c>
+      <c r="G68">
+        <v>0.03075694779091404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03027285350725229</v>
+        <v>0.08260581778605505</v>
       </c>
       <c r="C69">
-        <v>0.02893549130607282</v>
+        <v>-0.07031409500597084</v>
       </c>
       <c r="D69">
-        <v>0.07554632917591815</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008834671354761573</v>
+      </c>
+      <c r="E69">
+        <v>-0.0201549246841175</v>
+      </c>
+      <c r="F69">
+        <v>0.03782343085169793</v>
+      </c>
+      <c r="G69">
+        <v>0.1012697789184206</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1765446846147448</v>
+        <v>0.1413879871418384</v>
       </c>
       <c r="C71">
-        <v>0.1170518885197028</v>
+        <v>0.2304051149825028</v>
       </c>
       <c r="D71">
-        <v>-0.1226596806994199</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003229077659460738</v>
+      </c>
+      <c r="E71">
+        <v>0.03079964100972711</v>
+      </c>
+      <c r="F71">
+        <v>0.02637521499076566</v>
+      </c>
+      <c r="G71">
+        <v>0.07075238594774236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.01343147232890671</v>
+        <v>0.08547720249527203</v>
       </c>
       <c r="C72">
-        <v>0.01666066669501536</v>
+        <v>-0.06891583858650206</v>
       </c>
       <c r="D72">
-        <v>0.1036272069535432</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008357905783343486</v>
+      </c>
+      <c r="E72">
+        <v>-0.01017832276839177</v>
+      </c>
+      <c r="F72">
+        <v>-0.0343648296419795</v>
+      </c>
+      <c r="G72">
+        <v>0.08504363696899679</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.2289163885538045</v>
+        <v>0.3769611054749487</v>
       </c>
       <c r="C73">
-        <v>0.1304565078068704</v>
+        <v>-0.1176831230115593</v>
       </c>
       <c r="D73">
-        <v>0.2740884975024883</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.02142087702127959</v>
+      </c>
+      <c r="E73">
+        <v>0.08544300441235933</v>
+      </c>
+      <c r="F73">
+        <v>-0.5821861842539533</v>
+      </c>
+      <c r="G73">
+        <v>-0.2884549481992043</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.0445868431596616</v>
+        <v>0.1046320323510806</v>
       </c>
       <c r="C74">
-        <v>0.03878515213256244</v>
+        <v>-0.1095278259791292</v>
       </c>
       <c r="D74">
-        <v>0.1684537102178066</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009447286859888989</v>
+      </c>
+      <c r="E74">
+        <v>-0.007775048779046475</v>
+      </c>
+      <c r="F74">
+        <v>0.06970756013689691</v>
+      </c>
+      <c r="G74">
+        <v>0.08237763532070749</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1120914946578714</v>
+        <v>0.247559778656148</v>
       </c>
       <c r="C75">
-        <v>0.09235344251295473</v>
+        <v>-0.1533333445609996</v>
       </c>
       <c r="D75">
-        <v>0.3033529579193388</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03092400543650752</v>
+      </c>
+      <c r="E75">
+        <v>-0.0707980829969756</v>
+      </c>
+      <c r="F75">
+        <v>0.1670215898981977</v>
+      </c>
+      <c r="G75">
+        <v>-0.02220501014697432</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.0563164855585069</v>
+        <v>0.1189375655185011</v>
       </c>
       <c r="C76">
-        <v>0.05408319913511601</v>
+        <v>-0.1093565355017083</v>
       </c>
       <c r="D76">
-        <v>0.2107536915044974</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01801548206413142</v>
+      </c>
+      <c r="E76">
+        <v>-0.02657455702223783</v>
+      </c>
+      <c r="F76">
+        <v>0.1048645509288405</v>
+      </c>
+      <c r="G76">
+        <v>0.06025358632334476</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01631066010551929</v>
+        <v>0.07073836166807043</v>
       </c>
       <c r="C77">
-        <v>-0.0009000246566924169</v>
+        <v>-0.06081006199845165</v>
       </c>
       <c r="D77">
-        <v>0.0777901380192324</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01049065816178078</v>
+      </c>
+      <c r="E77">
+        <v>0.05062125055717193</v>
+      </c>
+      <c r="F77">
+        <v>-0.01233402483635979</v>
+      </c>
+      <c r="G77">
+        <v>0.06229278364409375</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.007894285316391355</v>
+        <v>0.04254086621083455</v>
       </c>
       <c r="C78">
-        <v>0.0009695864799582915</v>
+        <v>-0.04914954783146343</v>
       </c>
       <c r="D78">
-        <v>0.06440585703999401</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.00589711478313475</v>
+      </c>
+      <c r="E78">
+        <v>0.03002376774555493</v>
+      </c>
+      <c r="F78">
+        <v>-0.03484353391208826</v>
+      </c>
+      <c r="G78">
+        <v>0.103837149329849</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0001217670826268054</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-8.727931169222277e-05</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-5.431814107402008e-05</v>
+      </c>
+      <c r="E79">
+        <v>0.001734329565715846</v>
+      </c>
+      <c r="F79">
+        <v>-0.001332715643295303</v>
+      </c>
+      <c r="G79">
+        <v>8.550668879461534e-06</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.03350785680278977</v>
+        <v>0.0430093099793494</v>
       </c>
       <c r="C80">
-        <v>0.009430212140886102</v>
+        <v>-0.05110282053219128</v>
       </c>
       <c r="D80">
-        <v>0.0761015288641798</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01328216602115067</v>
+      </c>
+      <c r="E80">
+        <v>0.02676505547333977</v>
+      </c>
+      <c r="F80">
+        <v>-0.009747306182047359</v>
+      </c>
+      <c r="G80">
+        <v>0.05354901842124443</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.06396638141787782</v>
+        <v>0.1369597842667612</v>
       </c>
       <c r="C81">
-        <v>0.05182060938134961</v>
+        <v>-0.09591904388470879</v>
       </c>
       <c r="D81">
-        <v>0.1680062120525917</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01472655828635918</v>
+      </c>
+      <c r="E81">
+        <v>-0.03461951227538394</v>
+      </c>
+      <c r="F81">
+        <v>0.1255348209080534</v>
+      </c>
+      <c r="G81">
+        <v>0.02130210444535866</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.1348649316883661</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.08188442490063426</v>
       </c>
       <c r="D82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.009773221448085111</v>
+      </c>
+      <c r="E82">
+        <v>-0.1032423290003077</v>
+      </c>
+      <c r="F82">
+        <v>0.05079645306868583</v>
+      </c>
+      <c r="G82">
+        <v>0.05967801018626687</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.01391155851329519</v>
+        <v>0.03597554774045758</v>
       </c>
       <c r="C83">
-        <v>0.004826091413534309</v>
+        <v>-0.0284790985635792</v>
       </c>
       <c r="D83">
-        <v>0.02312605638890593</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006168544057467642</v>
+      </c>
+      <c r="E83">
+        <v>0.03203051257909331</v>
+      </c>
+      <c r="F83">
+        <v>-0.02933004157625223</v>
+      </c>
+      <c r="G83">
+        <v>0.06368583391572155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.09698110082754986</v>
+        <v>0.2113548609875593</v>
       </c>
       <c r="C85">
-        <v>0.06683571017642985</v>
+        <v>-0.1480906322770793</v>
       </c>
       <c r="D85">
-        <v>0.2724996630151185</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01689223719952137</v>
+      </c>
+      <c r="E85">
+        <v>-0.1043076625716175</v>
+      </c>
+      <c r="F85">
+        <v>0.1193760938618628</v>
+      </c>
+      <c r="G85">
+        <v>-0.06398822872423365</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.01545133133592884</v>
+        <v>0.0141523782734363</v>
       </c>
       <c r="C86">
-        <v>0.004944082738304901</v>
+        <v>-0.02414406673884533</v>
       </c>
       <c r="D86">
-        <v>0.03731380788203236</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01147042761325902</v>
+      </c>
+      <c r="E86">
+        <v>0.05319895960558475</v>
+      </c>
+      <c r="F86">
+        <v>-0.01767406362110204</v>
+      </c>
+      <c r="G86">
+        <v>0.1939973756942394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.005213279703445876</v>
+        <v>0.02097958751804038</v>
       </c>
       <c r="C87">
-        <v>-0.01427002094751263</v>
+        <v>-0.02031123570921457</v>
       </c>
       <c r="D87">
-        <v>0.02941529628068029</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01216578485934721</v>
+      </c>
+      <c r="E87">
+        <v>0.09675586574101001</v>
+      </c>
+      <c r="F87">
+        <v>-0.007290873378635147</v>
+      </c>
+      <c r="G87">
+        <v>0.1235924198451068</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.04970929036461752</v>
+        <v>0.09369419325550493</v>
       </c>
       <c r="C88">
-        <v>0.007052417557508713</v>
+        <v>-0.06848803455931873</v>
       </c>
       <c r="D88">
-        <v>0.0455141717421881</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02238377984236931</v>
+      </c>
+      <c r="E88">
+        <v>-0.004309881972772618</v>
+      </c>
+      <c r="F88">
+        <v>0.0206141059669904</v>
+      </c>
+      <c r="G88">
+        <v>0.1027575498532115</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.3291818464784155</v>
+        <v>0.2330902644585301</v>
       </c>
       <c r="C89">
-        <v>0.2148730664630113</v>
+        <v>0.3679597556073593</v>
       </c>
       <c r="D89">
-        <v>-0.2086235297412823</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0004906716982124413</v>
+      </c>
+      <c r="E89">
+        <v>-0.01915815638985908</v>
+      </c>
+      <c r="F89">
+        <v>0.02584583454719843</v>
+      </c>
+      <c r="G89">
+        <v>0.07004265459178209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.2689848970271932</v>
+        <v>0.2074398057186747</v>
       </c>
       <c r="C90">
-        <v>0.1794599896515116</v>
+        <v>0.3167049224028999</v>
       </c>
       <c r="D90">
-        <v>-0.1841949806987274</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.004701709733853194</v>
+      </c>
+      <c r="E90">
+        <v>0.0004003960625120261</v>
+      </c>
+      <c r="F90">
+        <v>0.04614296606222643</v>
+      </c>
+      <c r="G90">
+        <v>0.04405715351142808</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.09530563121707258</v>
+        <v>0.1845496702801319</v>
       </c>
       <c r="C91">
-        <v>0.08115321607445425</v>
+        <v>-0.1417065327122593</v>
       </c>
       <c r="D91">
-        <v>0.2285909859961469</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02187675382398602</v>
+      </c>
+      <c r="E91">
+        <v>-0.06457321595313588</v>
+      </c>
+      <c r="F91">
+        <v>0.1406454009739742</v>
+      </c>
+      <c r="G91">
+        <v>0.03452074364083112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.2296951805982083</v>
+        <v>0.2001980381549526</v>
       </c>
       <c r="C92">
-        <v>0.1896286401139002</v>
+        <v>0.2569675492105281</v>
       </c>
       <c r="D92">
-        <v>-0.09359442773323597</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03837976272272534</v>
+      </c>
+      <c r="E92">
+        <v>0.03977731032588838</v>
+      </c>
+      <c r="F92">
+        <v>0.06021400491327907</v>
+      </c>
+      <c r="G92">
+        <v>0.1119799323829782</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.2888053596364465</v>
+        <v>0.2319558450417049</v>
       </c>
       <c r="C93">
-        <v>0.1992506687516538</v>
+        <v>0.3131968517412049</v>
       </c>
       <c r="D93">
-        <v>-0.1565531042320604</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01166454510474711</v>
+      </c>
+      <c r="E93">
+        <v>0.001885337769184783</v>
+      </c>
+      <c r="F93">
+        <v>0.04369887471327519</v>
+      </c>
+      <c r="G93">
+        <v>0.05831177067796905</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1477525386364481</v>
+        <v>0.3194822003849736</v>
       </c>
       <c r="C94">
-        <v>0.09352733380578183</v>
+        <v>-0.1804518440304194</v>
       </c>
       <c r="D94">
-        <v>0.2919209985841179</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.01889050269596634</v>
+      </c>
+      <c r="E94">
+        <v>-0.222135206478408</v>
+      </c>
+      <c r="F94">
+        <v>0.4731308808912383</v>
+      </c>
+      <c r="G94">
+        <v>-0.4091547487792821</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.003371769561551657</v>
+        <v>0.1007508933797742</v>
       </c>
       <c r="C95">
-        <v>0.01086134957533559</v>
+        <v>-0.08826785096242544</v>
       </c>
       <c r="D95">
-        <v>0.1246528829088427</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009880286739374617</v>
+      </c>
+      <c r="E95">
+        <v>0.08672999827535904</v>
+      </c>
+      <c r="F95">
+        <v>-0.1819373975987903</v>
+      </c>
+      <c r="G95">
+        <v>0.004119719213432949</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1331442643771131</v>
+        <v>0.1949056012743862</v>
       </c>
       <c r="C98">
-        <v>0.1081226289898692</v>
+        <v>-0.04514213315644143</v>
       </c>
       <c r="D98">
-        <v>0.1215583937681368</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01315901920461798</v>
+      </c>
+      <c r="E98">
+        <v>0.07438761266155476</v>
+      </c>
+      <c r="F98">
+        <v>-0.2386193852191139</v>
+      </c>
+      <c r="G98">
+        <v>-0.02613285469894238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.009999420074136026</v>
+        <v>0.008461002329783458</v>
       </c>
       <c r="C101">
-        <v>-0.0006433679114757002</v>
+        <v>-0.0223243680428251</v>
       </c>
       <c r="D101">
-        <v>0.01746359037558253</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009188107981595724</v>
+      </c>
+      <c r="E101">
+        <v>0.005823382855783582</v>
+      </c>
+      <c r="F101">
+        <v>0.01506525983555808</v>
+      </c>
+      <c r="G101">
+        <v>0.09741845132152446</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0569184911036556</v>
+        <v>0.1150492263939608</v>
       </c>
       <c r="C102">
-        <v>0.03084764753099806</v>
+        <v>-0.08404323440950183</v>
       </c>
       <c r="D102">
-        <v>0.1364817172458587</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0008895066397730047</v>
+      </c>
+      <c r="E102">
+        <v>-0.03420450368161626</v>
+      </c>
+      <c r="F102">
+        <v>0.04114939794234132</v>
+      </c>
+      <c r="G102">
+        <v>0.01242822647873366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.56044490594503</v>
+        <v>0.02115904282520389</v>
       </c>
       <c r="C104">
-        <v>-0.817159445408786</v>
+        <v>0.03047734616037964</v>
       </c>
       <c r="D104">
-        <v>-0.02722355042455765</v>
+        <v>-0.9878256462408799</v>
+      </c>
+      <c r="E104">
+        <v>-0.04994038283015086</v>
+      </c>
+      <c r="F104">
+        <v>0.03497779314823285</v>
+      </c>
+      <c r="G104">
+        <v>-0.04036680601343273</v>
       </c>
     </row>
   </sheetData>
